--- a/detailed_users_data.xlsx
+++ b/detailed_users_data.xlsx
@@ -467,25 +467,25 @@
         <v>Social Media Links</v>
       </c>
       <c r="V1" t="str">
-        <v>Postal Code 2</v>
+        <v>Address 1</v>
       </c>
       <c r="W1" t="str">
-        <v>Address 1</v>
+        <v>City 1</v>
       </c>
       <c r="X1" t="str">
-        <v>City 1</v>
+        <v>Postal Code 1</v>
       </c>
       <c r="Y1" t="str">
         <v>State 1</v>
       </c>
       <c r="Z1" t="str">
-        <v>Postal Code 1</v>
+        <v>Address 2</v>
       </c>
       <c r="AA1" t="str">
-        <v>Address 2</v>
+        <v>City 2</v>
       </c>
       <c r="AB1" t="str">
-        <v>City 2</v>
+        <v>Postal Code 2</v>
       </c>
       <c r="AC1" t="str">
         <v>State 2</v>
@@ -497,10 +497,10 @@
         <v>City 3</v>
       </c>
       <c r="AF1" t="str">
+        <v>Postal Code 3</v>
+      </c>
+      <c r="AG1" t="str">
         <v>State 3</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>Postal Code 3</v>
       </c>
       <c r="AH1" t="str">
         <v>Address 4</v>
@@ -509,10 +509,10 @@
         <v>City 4</v>
       </c>
       <c r="AJ1" t="str">
+        <v>Postal Code 4</v>
+      </c>
+      <c r="AK1" t="str">
         <v>State 4</v>
-      </c>
-      <c r="AK1" t="str">
-        <v>Postal Code 4</v>
       </c>
       <c r="AL1" t="str">
         <v>Address 5</v>
@@ -521,10 +521,10 @@
         <v>City 5</v>
       </c>
       <c r="AN1" t="str">
+        <v>Postal Code 5</v>
+      </c>
+      <c r="AO1" t="str">
         <v>State 5</v>
-      </c>
-      <c r="AO1" t="str">
-        <v>Postal Code 5</v>
       </c>
       <c r="AP1" t="str">
         <v>Lawyer Availability</v>
@@ -606,25 +606,25 @@
         <v>https://www.facebook.com/LawOfficesOfDavidMWhite, https://www.linkedin.com/in/dmwhiteesq/?trk=pub-pbmap, https://lawyers.justia.com/lawyer/david-m-white-1515514</v>
       </c>
       <c r="V2" t="str">
-        <v>76904</v>
+        <v>1500 Industrial Blvd. Ste. 303</v>
       </c>
       <c r="W2" t="str">
-        <v>1500 Industrial Blvd. Ste. 303</v>
+        <v>Abilene</v>
       </c>
       <c r="X2" t="str">
-        <v>Abilene</v>
+        <v>79602</v>
       </c>
       <c r="Y2" t="str">
         <v>TX</v>
       </c>
       <c r="Z2" t="str">
-        <v>79602</v>
+        <v>4112 College Hills Blvd. Ste. 202</v>
       </c>
       <c r="AA2" t="str">
-        <v>4112 College Hills Blvd. Ste. 202</v>
+        <v>San Angelo</v>
       </c>
       <c r="AB2" t="str">
-        <v>San Angelo</v>
+        <v>76904</v>
       </c>
       <c r="AC2" t="str">
         <v>TX</v>
@@ -749,19 +749,19 @@
         <v>https://www.linkedin.com/in/sara-priddy-b0969716b/, https://lawyers.justia.com/lawyer/sara-priddy-1519447</v>
       </c>
       <c r="V3" t="str">
-        <v/>
+        <v>1600 N. Kansas Suite E</v>
       </c>
       <c r="W3" t="str">
-        <v>1600 N. Kansas Suite E</v>
+        <v>El Paso</v>
       </c>
       <c r="X3" t="str">
-        <v>El Paso</v>
+        <v>79902</v>
       </c>
       <c r="Y3" t="str">
         <v>TX</v>
       </c>
       <c r="Z3" t="str">
-        <v>79902</v>
+        <v/>
       </c>
       <c r="AA3" t="str">
         <v/>
@@ -890,25 +890,25 @@
         <v>https://www.facebook.com/guestandgray, https://twitter.com/RobertSGuest, http://www.linkedin.com/pub/robert-guest/5/732/854, https://lawyers.justia.com/lawyer/robert-sterling-guest-234286</v>
       </c>
       <c r="V4" t="str">
-        <v>75032</v>
+        <v>315 S Bois D Arc St</v>
       </c>
       <c r="W4" t="str">
-        <v>315 S Bois D Arc St</v>
+        <v>Forney</v>
       </c>
       <c r="X4" t="str">
-        <v>Forney</v>
+        <v>75126</v>
       </c>
       <c r="Y4" t="str">
         <v>TX</v>
       </c>
       <c r="Z4" t="str">
-        <v>75126</v>
+        <v>25 Noble Ct</v>
       </c>
       <c r="AA4" t="str">
-        <v>25 Noble Ct</v>
+        <v>Heath</v>
       </c>
       <c r="AB4" t="str">
-        <v>Heath</v>
+        <v>75032</v>
       </c>
       <c r="AC4" t="str">
         <v>TX</v>
@@ -920,10 +920,10 @@
         <v>Plano</v>
       </c>
       <c r="AF4" t="str">
+        <v>75024</v>
+      </c>
+      <c r="AG4" t="str">
         <v>TX</v>
-      </c>
-      <c r="AG4" t="str">
-        <v>75024</v>
       </c>
       <c r="AH4" t="str">
         <v/>
@@ -1038,25 +1038,25 @@
         <v>https://www.facebook.com/pages/The-Law-Offices-of-Dustan-Neyland/215349042597?sk=info, https://twitter.com/NeylandLegal, https://www.linkedin.com/in/dustan-neyland-5537305/, https://lawyers.justia.com/lawyer/dustan-neyland-309290</v>
       </c>
       <c r="V5" t="str">
-        <v>77301</v>
+        <v>701 N Post Oak Rd #425</v>
       </c>
       <c r="W5" t="str">
-        <v>701 N Post Oak Rd #425</v>
+        <v>Houston</v>
       </c>
       <c r="X5" t="str">
-        <v>Houston</v>
+        <v>77024</v>
       </c>
       <c r="Y5" t="str">
         <v>TX</v>
       </c>
       <c r="Z5" t="str">
-        <v>77024</v>
+        <v>336 N Main St</v>
       </c>
       <c r="AA5" t="str">
-        <v>336 N Main St</v>
+        <v>Conroe</v>
       </c>
       <c r="AB5" t="str">
-        <v>Conroe</v>
+        <v>77301</v>
       </c>
       <c r="AC5" t="str">
         <v>TX</v>
@@ -1068,10 +1068,10 @@
         <v>Kingwood</v>
       </c>
       <c r="AF5" t="str">
+        <v>77339</v>
+      </c>
+      <c r="AG5" t="str">
         <v>TX</v>
-      </c>
-      <c r="AG5" t="str">
-        <v>77339</v>
       </c>
       <c r="AH5" t="str">
         <v/>
@@ -1180,19 +1180,19 @@
         <v>https://www.facebook.com/corrigancrimelaw/, https://twitter.com/texascrimelaw, https://www.linkedin.com/in/brian-corrigan-66a01b2a/, https://lawyers.justia.com/lawyer/brian-corrigan-1496198</v>
       </c>
       <c r="V6" t="str">
-        <v/>
+        <v>1008 Ridge Rd #101</v>
       </c>
       <c r="W6" t="str">
-        <v>1008 Ridge Rd #101</v>
+        <v>Rockwall</v>
       </c>
       <c r="X6" t="str">
-        <v>Rockwall</v>
+        <v>75087</v>
       </c>
       <c r="Y6" t="str">
         <v>TX</v>
       </c>
       <c r="Z6" t="str">
-        <v>75087</v>
+        <v/>
       </c>
       <c r="AA6" t="str">
         <v/>
@@ -1324,19 +1324,19 @@
         <v>https://www.facebook.com/TheShapiroLawFirm/, https://twitter.com/ShapiroFirm, https://www.linkedin.com/in/todd-shapiro-1b835045/, https://lawyers.justia.com/lawyer/todd-donald-shapiro-208047</v>
       </c>
       <c r="V7" t="str">
-        <v/>
+        <v>701 East 15th St Suite 204</v>
       </c>
       <c r="W7" t="str">
-        <v>701 East 15th St Suite 204</v>
+        <v>Plano</v>
       </c>
       <c r="X7" t="str">
-        <v>Plano</v>
+        <v>75074</v>
       </c>
       <c r="Y7" t="str">
         <v>TX</v>
       </c>
       <c r="Z7" t="str">
-        <v>75074</v>
+        <v/>
       </c>
       <c r="AA7" t="str">
         <v/>
@@ -1464,19 +1464,19 @@
         <v>https://www.facebook.com/JoeVeithLaw/?ref=bookmarks, https://twitter.com/JosephVeithLaw, https://www.linkedin.com/in/joseph-veith-94369672/, https://lawyers.justia.com/lawyer/joseph-veith-1558449</v>
       </c>
       <c r="V8" t="str">
-        <v/>
+        <v>2511 N. Stanton St.</v>
       </c>
       <c r="W8" t="str">
-        <v>2511 N. Stanton St.</v>
+        <v>El Paso</v>
       </c>
       <c r="X8" t="str">
-        <v>El Paso</v>
+        <v>79902</v>
       </c>
       <c r="Y8" t="str">
         <v>TX</v>
       </c>
       <c r="Z8" t="str">
-        <v>79902</v>
+        <v/>
       </c>
       <c r="AA8" t="str">
         <v/>
@@ -1601,19 +1601,19 @@
         <v>https://www.facebook.com/BrianFoleyLaw, https://twitter.com/brianpllc, https://www.linkedin.com/in/brian-foley-b3385b1b/, https://www.instagram.com/brianfoleylawpllc/, https://lawyers.justia.com/lawyer/brian-foley-1664228</v>
       </c>
       <c r="V9" t="str">
-        <v/>
+        <v>412 W. Phillips St. Suite 125</v>
       </c>
       <c r="W9" t="str">
-        <v>412 W. Phillips St. Suite 125</v>
+        <v>Conroe</v>
       </c>
       <c r="X9" t="str">
-        <v>Conroe</v>
+        <v>77301</v>
       </c>
       <c r="Y9" t="str">
         <v>TX</v>
       </c>
       <c r="Z9" t="str">
-        <v>77301</v>
+        <v/>
       </c>
       <c r="AA9" t="str">
         <v/>
@@ -1731,19 +1731,19 @@
         <v>https://www.facebook.com/atlawfirm, https://twitter.com/atlawoffice, https://www.linkedin.com/in/a-t-law-office-pllc-93207698, https://www.instagram.com/a.t.lawoffice/, https://lawyers.justia.com/lawyer/amir-tavakkoli-1515120</v>
       </c>
       <c r="V10" t="str">
-        <v/>
+        <v>3707 Cypress Creek Pkwy Suite 400</v>
       </c>
       <c r="W10" t="str">
-        <v>3707 Cypress Creek Pkwy Suite 400</v>
+        <v>Houston</v>
       </c>
       <c r="X10" t="str">
-        <v>Houston</v>
+        <v>77068</v>
       </c>
       <c r="Y10" t="str">
         <v>TX</v>
       </c>
       <c r="Z10" t="str">
-        <v>77068</v>
+        <v/>
       </c>
       <c r="AA10" t="str">
         <v/>
@@ -1866,19 +1866,19 @@
         <v>https://www.facebook.com/Edward-Okwueze-Associates-317436155877764/, https://www.linkedin.com/in/edward-okwueze-33623bab/, https://lawyers.justia.com/lawyer/edward-c-okwueze-1524811</v>
       </c>
       <c r="V11" t="str">
-        <v/>
+        <v>6671 Southwest Fwy, Suite 442</v>
       </c>
       <c r="W11" t="str">
-        <v>6671 Southwest Fwy, Suite 442</v>
+        <v>Houston</v>
       </c>
       <c r="X11" t="str">
-        <v>Houston</v>
+        <v>77074</v>
       </c>
       <c r="Y11" t="str">
         <v>TX</v>
       </c>
       <c r="Z11" t="str">
-        <v>77074</v>
+        <v/>
       </c>
       <c r="AA11" t="str">
         <v/>
@@ -2001,19 +2001,19 @@
         <v>https://www.facebook.com/biedermanandburleson/, https://twitter.com/BB_texaslawfirm, https://www.linkedin.com/in/troy-burleson-b5a42472, https://lawyers.justia.com/lawyer/troy-p-burleson-203920</v>
       </c>
       <c r="V12" t="str">
-        <v/>
+        <v>2591 Dallas Pkwy #207</v>
       </c>
       <c r="W12" t="str">
-        <v>2591 Dallas Pkwy #207</v>
+        <v>Frisco</v>
       </c>
       <c r="X12" t="str">
-        <v>Frisco</v>
+        <v>75034</v>
       </c>
       <c r="Y12" t="str">
         <v>TX</v>
       </c>
       <c r="Z12" t="str">
-        <v>75034</v>
+        <v/>
       </c>
       <c r="AA12" t="str">
         <v/>
@@ -2145,25 +2145,25 @@
         <v>https://www.facebook.com/trumplerlawpc/, https://twitter.com/trumplerlaw, https://www.linkedin.com/in/trumplerlaw, https://lawyers.justia.com/lawyer/jason-eric-trumpler-323215</v>
       </c>
       <c r="V13" t="str">
-        <v>78664</v>
+        <v>505 W 12th St Suite 200 S</v>
       </c>
       <c r="W13" t="str">
-        <v>505 W 12th St Suite 200 S</v>
+        <v>Austin</v>
       </c>
       <c r="X13" t="str">
-        <v>Austin</v>
+        <v>78701</v>
       </c>
       <c r="Y13" t="str">
         <v>TX</v>
       </c>
       <c r="Z13" t="str">
-        <v>78701</v>
+        <v>1000 Heritage Center Circle</v>
       </c>
       <c r="AA13" t="str">
-        <v>1000 Heritage Center Circle</v>
+        <v>Round Rock</v>
       </c>
       <c r="AB13" t="str">
-        <v>Round Rock</v>
+        <v>78664</v>
       </c>
       <c r="AC13" t="str">
         <v>TX</v>
